--- a/1806设任分配明细.xlsx
+++ b/1806设任分配明细.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94059\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2e502ab1231ee28/大学文档/课程/化原/课设/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{437286FF-C6CF-4AC9-A62C-9E45988C86FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8136" yWindow="2796" windowWidth="13764" windowHeight="8136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="-120" windowWidth="26490" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="任务分配" sheetId="1" r:id="rId1"/>
@@ -675,43 +675,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,31 +1062,31 @@
   <dimension ref="A2:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1096,7 +1096,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1375,26 +1375,26 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="16">
-        <v>8000</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="12">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="11">
         <v>70</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="7"/>
@@ -1406,7 +1406,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1468,26 +1468,26 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="16">
-        <v>8000</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="12">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="11">
         <v>65</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="7"/>
@@ -1499,7 +1499,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1654,24 +1654,24 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+    <row r="21" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="14">
-        <v>8000</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D21" s="10">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="9">
         <v>65</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="7"/>
@@ -1683,7 +1683,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2086,7 +2086,7 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2117,11 +2117,11 @@
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="3">
@@ -2140,14 +2140,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+    <row r="37" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="16">
         <v>3</v>
       </c>
       <c r="D37" s="3">
@@ -2163,11 +2163,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
